--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43676,6 +43676,43 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43713,6 +43713,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43750,6 +43750,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43787,6 +43787,43 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43824,6 +43824,43 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43861,6 +43861,41 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43896,6 +43896,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43931,6 +43931,43 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43968,6 +43968,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44003,6 +44003,43 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44040,6 +44040,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44077,6 +44077,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44114,6 +44114,76 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44184,6 +44184,80 @@
         <v>900</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44258,6 +44258,41 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>18200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44293,6 +44293,43 @@
         <v>18200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44330,6 +44330,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44365,6 +44365,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>46000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44400,6 +44400,80 @@
         <v>46000</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44474,6 +44474,43 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44511,6 +44511,43 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1958"/>
+  <dimension ref="A1:I1959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69888,6 +69888,41 @@
         </is>
       </c>
     </row>
+    <row r="1959">
+      <c r="A1959" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1959" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1959" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1959" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1959" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1959" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1959"/>
+  <dimension ref="A1:I1960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69923,6 +69923,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1960">
+      <c r="A1960" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1960" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1960" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1960" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1960" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1960" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1960" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1960"/>
+  <dimension ref="A1:I1961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69960,6 +69960,41 @@
         </is>
       </c>
     </row>
+    <row r="1961">
+      <c r="A1961" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1961" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1961" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1961" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1961" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1961" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1961" t="n">
+        <v>228100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1961"/>
+  <dimension ref="A1:I1962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69995,6 +69995,41 @@
         <v>228100</v>
       </c>
     </row>
+    <row r="1962">
+      <c r="A1962" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1962" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1962" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1962" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1962" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1962" t="n">
+        <v>205700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1962"/>
+  <dimension ref="A1:I1963"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70030,6 +70030,41 @@
         <v>205700</v>
       </c>
     </row>
+    <row r="1963">
+      <c r="A1963" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1963" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1963" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1963" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1963" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1963" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1963"/>
+  <dimension ref="A1:I1964"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70065,6 +70065,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1964">
+      <c r="A1964" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1964" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1964" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1964" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1964" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1964" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1964"/>
+  <dimension ref="A1:I1965"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70102,6 +70102,41 @@
         </is>
       </c>
     </row>
+    <row r="1965">
+      <c r="A1965" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1965" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1965" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1965" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1965" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1965" t="n">
+        <v>66000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1965"/>
+  <dimension ref="A1:I1966"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70137,6 +70137,41 @@
         <v>66000</v>
       </c>
     </row>
+    <row r="1966">
+      <c r="A1966" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1966" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1966" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1966" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1966" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1966" t="n">
+        <v>34800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1966"/>
+  <dimension ref="A1:I1967"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70172,6 +70172,41 @@
         <v>34800</v>
       </c>
     </row>
+    <row r="1967">
+      <c r="A1967" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1967" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1967" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1967" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1967" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1967" t="n">
+        <v>28900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1967"/>
+  <dimension ref="A1:I1968"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70207,6 +70207,43 @@
         <v>28900</v>
       </c>
     </row>
+    <row r="1968">
+      <c r="A1968" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1968" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1968" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1968" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1968" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1968" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1968"/>
+  <dimension ref="A1:I1969"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70244,6 +70244,43 @@
         </is>
       </c>
     </row>
+    <row r="1969">
+      <c r="A1969" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1969" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1969" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1969" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1969" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1969" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1969"/>
+  <dimension ref="A1:I1970"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70281,6 +70281,43 @@
         </is>
       </c>
     </row>
+    <row r="1970">
+      <c r="A1970" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1970" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1970" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1970" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1970" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1970" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1970"/>
+  <dimension ref="A1:I1971"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70318,6 +70318,41 @@
         </is>
       </c>
     </row>
+    <row r="1971">
+      <c r="A1971" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1971" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1971" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1971" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1971" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1971" t="n">
+        <v>27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1971"/>
+  <dimension ref="A1:I1972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70353,6 +70353,41 @@
         <v>27000</v>
       </c>
     </row>
+    <row r="1972">
+      <c r="A1972" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1972" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1972" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1972" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1972" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1972" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6211.xlsx
+++ b/data/6211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1972"/>
+  <dimension ref="A1:I1973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70388,6 +70388,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1973">
+      <c r="A1973" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>KIALIM</t>
+        </is>
+      </c>
+      <c r="E1973" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1973" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1973" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1973" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1973" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
